--- a/WebAuto/src/test/resources/data/reportDST0052DXdata.xlsx
+++ b/WebAuto/src/test/resources/data/reportDST0052DXdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ffbf\WebAuto\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{004E6FF1-F44F-4E31-843B-3B1E581EBB71}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89865A6-86BA-4712-AD2D-FAE780475E07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A2C2888D-738E-4039-9A7B-86499E244F63}"/>
   </bookViews>
@@ -22,6 +22,20 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Facility</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>EndDate</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -371,12 +385,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EF743E3-A2DD-4039-A9D9-ED5F100B6A59}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/WebAuto/src/test/resources/data/reportDST0052DXdata.xlsx
+++ b/WebAuto/src/test/resources/data/reportDST0052DXdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ffbf\WebAuto\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89865A6-86BA-4712-AD2D-FAE780475E07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C59603F-3E17-401E-BC21-248D20AF707A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A2C2888D-738E-4039-9A7B-86499E244F63}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t>Facility</t>
   </si>
@@ -34,6 +34,12 @@
   </si>
   <si>
     <t>EndDate</t>
+  </si>
+  <si>
+    <t>TAV</t>
+  </si>
+  <si>
+    <t>VNG</t>
   </si>
 </sst>
 </file>
@@ -388,12 +394,13 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -408,47 +415,47 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>20240501</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>20240515</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>20240516</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>20240530</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>20240501</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>20240515</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
+      <c r="A5" t="s">
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>20240516</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>20240530</v>
       </c>
     </row>
   </sheetData>
